--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.816130.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.816130.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{637C28FE-6D3F-4951-94B4-647EF85A0A65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38BCCC91-752B-468E-A10C-87CA260E6267}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T065015.810" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T071342.659" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="91">
   <si>
     <t>Do Ty</t>
   </si>
@@ -272,6 +272,15 @@
   </si>
   <si>
     <t>TYPE-C3.1/USB 3.0 ETHERNET ADP</t>
+  </si>
+  <si>
+    <t>PT. RIKSA MANDIRI SAFETY</t>
+  </si>
+  <si>
+    <t>74/INV/RSM/II/2024</t>
+  </si>
+  <si>
+    <t>BIAYA JASA PEMERIKSAAN DAN</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1126,7 +1135,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ12"/>
+  <dimension ref="A1:AZ13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2229,68 +2238,202 @@
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9">
+        <v>24001343</v>
+      </c>
+      <c r="D9">
+        <v>1205</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45342</v>
+      </c>
       <c r="F9" t="s">
         <v>84</v>
       </c>
       <c r="G9">
-        <v>404.5</v>
+        <v>664.43</v>
       </c>
       <c r="H9">
-        <v>404.5</v>
+        <v>664.43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
       </c>
       <c r="L9" s="2">
-        <v>6391895</v>
+        <v>10500000</v>
       </c>
       <c r="N9" s="2">
-        <v>6391895</v>
+        <v>10500000</v>
+      </c>
+      <c r="O9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9">
+        <v>15803</v>
+      </c>
+      <c r="T9" t="s">
+        <v>58</v>
+      </c>
+      <c r="U9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9" t="s">
+        <v>70</v>
+      </c>
+      <c r="W9" t="s">
+        <v>71</v>
+      </c>
+      <c r="X9">
+        <v>2104373</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>56</v>
       </c>
       <c r="AG9">
-        <v>149</v>
+        <v>1</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI9">
+        <v>57420268</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>45328</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP9">
+        <v>1205</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX9">
+        <v>24001107</v>
+      </c>
+      <c r="AY9">
+        <v>816130</v>
+      </c>
+      <c r="AZ9">
+        <v>1205.8161299999999</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10">
-        <v>404.5</v>
-      </c>
-      <c r="H10">
-        <v>404.5</v>
+        <v>87</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1068.93</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1068.93</v>
       </c>
       <c r="L10" s="2">
-        <v>6391895</v>
+        <v>16891895</v>
       </c>
       <c r="N10" s="2">
-        <v>6391895</v>
+        <v>16891895</v>
       </c>
       <c r="AG10">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11">
-        <v>404.5</v>
-      </c>
-      <c r="H11">
-        <v>404.5</v>
+        <v>88</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1068.93</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1068.93</v>
       </c>
       <c r="L11" s="2">
-        <v>6391895</v>
+        <v>16891895</v>
       </c>
       <c r="N11" s="2">
-        <v>6391895</v>
+        <v>16891895</v>
       </c>
       <c r="AG11">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1068.93</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1068.93</v>
+      </c>
+      <c r="L12" s="2">
+        <v>16891895</v>
+      </c>
+      <c r="N12" s="2">
+        <v>16891895</v>
+      </c>
+      <c r="AG12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.816130.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.816130.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38BCCC91-752B-468E-A10C-87CA260E6267}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECCD03C6-0E13-4171-BFE4-7D92894E2B6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T071342.659" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T071905.472" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="98">
   <si>
     <t>Do Ty</t>
   </si>
@@ -281,6 +281,27 @@
   </si>
   <si>
     <t>BIAYA JASA PEMERIKSAAN DAN</t>
+  </si>
+  <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>CASH JOURNAL - IDR</t>
+  </si>
+  <si>
+    <t>OFFICE SUPPLIES EXPENSES</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>General Accounting</t>
+  </si>
+  <si>
+    <t>TSANTIKA</t>
+  </si>
+  <si>
+    <t>UMUM &amp; KEBUTUHAN OFFICE</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1135,7 +1156,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ13"/>
+  <dimension ref="A1:AZ15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2372,60 +2393,270 @@
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10">
+        <v>24001030</v>
+      </c>
+      <c r="D10">
+        <v>1204</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45350</v>
+      </c>
       <c r="F10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1068.93</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1068.93</v>
+        <v>89</v>
+      </c>
+      <c r="G10">
+        <v>622.69000000000005</v>
+      </c>
+      <c r="H10">
+        <v>622.69000000000005</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
       </c>
       <c r="L10" s="2">
-        <v>16891895</v>
+        <v>9840358</v>
       </c>
       <c r="N10" s="2">
-        <v>16891895</v>
-      </c>
-      <c r="AG10">
-        <v>150</v>
+        <v>9840358</v>
+      </c>
+      <c r="O10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10">
+        <v>15803</v>
+      </c>
+      <c r="T10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U10" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" t="s">
+        <v>90</v>
+      </c>
+      <c r="W10" t="s">
+        <v>91</v>
+      </c>
+      <c r="X10">
+        <v>2106355</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>45351</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA10">
+        <v>2</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>45350</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP10">
+        <v>1205</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY10">
+        <v>816130</v>
+      </c>
+      <c r="AZ10">
+        <v>1205.8161299999999</v>
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11">
+        <v>24001034</v>
+      </c>
+      <c r="D11">
+        <v>1204</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45351</v>
+      </c>
       <c r="F11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1068.93</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1068.93</v>
+        <v>89</v>
+      </c>
+      <c r="G11">
+        <v>151.49</v>
+      </c>
+      <c r="H11">
+        <v>151.49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>55</v>
       </c>
       <c r="L11" s="2">
-        <v>16891895</v>
+        <v>2394000</v>
       </c>
       <c r="N11" s="2">
-        <v>16891895</v>
-      </c>
-      <c r="AG11">
-        <v>150</v>
+        <v>2394000</v>
+      </c>
+      <c r="O11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11">
+        <v>15803</v>
+      </c>
+      <c r="T11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V11" t="s">
+        <v>90</v>
+      </c>
+      <c r="W11" t="s">
+        <v>91</v>
+      </c>
+      <c r="X11">
+        <v>2106428</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>45351</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA11">
+        <v>2</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP11">
+        <v>1205</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY11">
+        <v>816130</v>
+      </c>
+      <c r="AZ11">
+        <v>1205.8161299999999</v>
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G12" s="2">
-        <v>1068.93</v>
+        <v>1843.11</v>
       </c>
       <c r="H12" s="2">
-        <v>1068.93</v>
+        <v>1843.11</v>
       </c>
       <c r="L12" s="2">
-        <v>16891895</v>
+        <v>29126253</v>
       </c>
       <c r="N12" s="2">
-        <v>16891895</v>
+        <v>29126253</v>
       </c>
       <c r="AG12">
         <v>150</v>
@@ -2433,7 +2664,47 @@
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>90</v>
+        <v>95</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1843.11</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1843.11</v>
+      </c>
+      <c r="L13" s="2">
+        <v>29126253</v>
+      </c>
+      <c r="N13" s="2">
+        <v>29126253</v>
+      </c>
+      <c r="AG13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1843.11</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1843.11</v>
+      </c>
+      <c r="L14" s="2">
+        <v>29126253</v>
+      </c>
+      <c r="N14" s="2">
+        <v>29126253</v>
+      </c>
+      <c r="AG14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
